--- a/1Comparaciones.xlsx
+++ b/1Comparaciones.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="E 0 G5_1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="E 1 G6_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="E 2 G4_1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="E 1 G4_1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="E 2 G6_1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="E 3 G5_3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="E 4 G2_2" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="E 5 G5_2" sheetId="6" state="visible" r:id="rId6"/>
@@ -486,12 +486,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>83.1241849642774</t>
+          <t>83.1259571559158</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>83.11029814767268</t>
+          <t>83.11029815323087</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-362.03615014046244</t>
+          <t>-362.0407714456642</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-343.7533835927656</t>
+          <t>-343.7534011740724</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.1497832736676182e-08</t>
+          <t>1.1492611316331486e-08</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -538,12 +538,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-447.45214972092765</t>
+          <t>-447.45409182856554</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-434.1996139035244</t>
+          <t>-434.19962167206864</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -555,17 +555,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>G6_1</t>
+          <t>G2_1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>299.1566669533847</t>
+          <t>400.0156414309987</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>299.1852854504555</t>
+          <t>399.9999999711167</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -575,12 +575,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-392.04943996443296</t>
+          <t>-404.8231475095467</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-398.4853806258947</t>
+          <t>-398.48541700450426</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -592,17 +592,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>G2_1</t>
+          <t>G3_1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>400.0138715457752</t>
+          <t>420.01565233822754</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>399.999999947968</t>
+          <t>420.0000001243778</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -612,12 +612,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-475.37576099894966</t>
+          <t>-475.3483645704375</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-478.23517204961877</t>
+          <t>-478.2351634075162</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -629,17 +629,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>G3_1</t>
+          <t>G4_1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>420.01388150949026</t>
+          <t>453.9481433984382</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>420.00000003693276</t>
+          <t>456.84534022823146</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -649,12 +649,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-81.23685874510015</t>
+          <t>-81.23475631297416</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-71.40503251816183</t>
+          <t>-71.40504095640902</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -666,17 +666,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>G4_1</t>
+          <t>G7_1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>453.7793434823527</t>
+          <t>307.9071825670679</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>456.8454412320679</t>
+          <t>308.19482872520274</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>26.521668132731378</t>
+          <t>26.521503840351585</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>33.18854153219738</t>
+          <t>33.188531044655996</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -703,17 +703,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>G7_1</t>
+          <t>G6_1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>307.07590159171286</t>
+          <t>298.3456501504525</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>307.3798224544112</t>
+          <t>298.3705707254248</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -723,12 +723,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-120.53285811302666</t>
+          <t>-126.84998766439563</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-122.24907221916605</t>
+          <t>-122.24909508014396</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -745,12 +745,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>400.01388533808597</t>
+          <t>400.0156560895737</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>400.0000000426395</t>
+          <t>400.00000010461827</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -760,12 +760,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>15.944796699738951</t>
+          <t>15.910285720727508</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>27.290095678589953</t>
+          <t>27.29007973503197</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -782,12 +782,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>400.0138853687663</t>
+          <t>400.0156561481475</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>400.0000000426386</t>
+          <t>400.00000010461713</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -797,12 +797,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>615.89602753616</t>
+          <t>616.060623951913</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>598.3808056664603</t>
+          <t>598.3807215882476</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -819,12 +819,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>400.0208095383892</t>
+          <t>400.0233655930017</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>400.0000000418585</t>
+          <t>400.0000001033906</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -834,12 +834,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1250.0902740335268</t>
+          <t>1250.1001022484834</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1275.705101804792</t>
+          <t>1275.7050722170638</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -856,12 +856,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>400.0175189777535</t>
+          <t>400.0235932115383</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>400.0000000428296</t>
+          <t>400.0000001049166</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -871,12 +871,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1125.898040678524</t>
+          <t>1049.8406860569053</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1123.1076231977152</t>
+          <t>1123.1078720016649</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -893,12 +893,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>400.01387289601155</t>
+          <t>400.0156424518701</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>400.0000000426395</t>
+          <t>400.00000010461827</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -908,12 +908,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>789.1118615228427</t>
+          <t>789.1574407477199</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>798.6192349960234</t>
+          <t>798.6192343211341</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -925,17 +925,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>G4_3</t>
+          <t>G6_3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>489.2114243850729</t>
+          <t>488.7080318074886</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>491.8440967147947</t>
+          <t>400.0000001049166</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -945,12 +945,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-78.42669199591384</t>
+          <t>-78.3063170360596</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-96.39334909662816</t>
+          <t>-96.39344764893588</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -962,17 +962,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>G6_3</t>
+          <t>G4_3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>400.0174924206102</t>
+          <t>400.0233425386984</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>400.0000000428296</t>
+          <t>491.84430342400844</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -982,12 +982,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>945.1876518372296</t>
+          <t>945.1949050196667</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>961.4358525770443</t>
+          <t>961.4358269344931</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>400.0138685486399</t>
+          <t>400.0156383133366</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>400.00000014754715</t>
+          <t>400.0000002510848</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1019,12 +1019,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-11.466850090690293</t>
+          <t>-11.46848756228708</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>-2.246395123105504</t>
+          <t>-2.246399168693186</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1041,12 +1041,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>400.0138753815302</t>
+          <t>400.0156458174027</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>400.00000014754715</t>
+          <t>400.0000002510848</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1056,12 +1056,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>-131.08165819034747</t>
+          <t>-131.11945087749856</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-104.03104061810342</t>
+          <t>-104.0310254653835</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1078,12 +1078,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>400.0207913648782</t>
+          <t>400.0233417780089</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>400.00000014747263</t>
+          <t>400.0000002509883</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>240.1359623195013</t>
+          <t>240.13775169001354</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>247.90159836003633</t>
+          <t>247.90158334267795</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>400.0138683041487</t>
+          <t>400.0156380803119</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>400.00000014754676</t>
+          <t>400.00000025108415</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1130,12 +1130,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-579.1688063613238</t>
+          <t>-566.8204708305727</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-594.3229646752935</t>
+          <t>-594.3232166564021</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>497.1316938923212</t>
+          <t>497.2899204230276</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>500.000015</t>
+          <t>500.0</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-11.707187306447672</t>
+          <t>-11.726940329680493</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-2.160864545524947</t>
+          <t>-2.1608804747617225</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>170.41509097690425</t>
+          <t>170.41686351224146</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>170.40119939254944</t>
+          <t>170.4011994337996</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1204,12 +1204,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-431.0263479903581</t>
+          <t>-431.08060966316214</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-405.7088219910132</t>
+          <t>-405.7088069260727</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1226,12 +1226,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>400.0208105577218</t>
+          <t>400.02336305857676</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>400.0000001245244</t>
+          <t>400.0000002207564</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1241,12 +1241,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-747.0906645179873</t>
+          <t>-747.0940504352333</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>-750.4007763463958</t>
+          <t>-750.4007690817346</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,12 +1263,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>400.02425361499013</t>
+          <t>400.0275910242932</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>400.0000001387157</t>
+          <t>400.0000002395224</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1278,12 +1278,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>-804.478586012996</t>
+          <t>-791.7536711023508</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>-790.8310527777747</t>
+          <t>-790.8310168693656</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1300,12 +1300,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>400.01388484355704</t>
+          <t>400.0156564181767</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>400.0000003420442</t>
+          <t>400.00000049327554</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1315,12 +1315,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-513.0245916859294</t>
+          <t>-513.057417654389</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-505.67699875464615</t>
+          <t>-505.6770076899069</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>420.01387297846964</t>
+          <t>420.01564318739645</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>420.0000001226309</t>
+          <t>420.0000002229752</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-81.23685874510015</t>
+          <t>-81.23475631297416</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-71.40503251816183</t>
+          <t>-71.40504095640902</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1374,12 +1374,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>489.21144760465427</t>
+          <t>489.35705063671253</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>491.844119712601</t>
+          <t>491.84417856689447</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1389,12 +1389,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>26.521668132731378</t>
+          <t>26.521503840351585</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>33.18854153219738</t>
+          <t>33.188531044655996</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>400.02465818080947</t>
+          <t>400.0280613947325</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>400.0000001387157</t>
+          <t>400.0000002395224</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>-120.53285811302666</t>
+          <t>-126.84998766439563</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>-122.24907221916605</t>
+          <t>-122.24909508014396</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1448,12 +1448,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>15.944796699738951</t>
+          <t>15.910285720727508</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>27.290095678589953</t>
+          <t>27.29007973503197</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1470,12 +1470,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>19.322133424410026</t>
+          <t>19.261141540367742</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>-15.357311403449067</t>
+          <t>-15.357408954358522</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1492,12 +1492,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>19.322133424410026</t>
+          <t>19.261141540367742</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>-15.357311403449067</t>
+          <t>-15.357408954358522</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1514,12 +1514,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>-54.270559784399865</t>
+          <t>-54.24389023313108</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>-74.0614412174725</t>
+          <t>-74.06144003480871</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1536,12 +1536,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-54.270559784399865</t>
+          <t>-54.24389023313108</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-74.0614412174725</t>
+          <t>-74.06144003480871</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1558,12 +1558,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>205.423536745798</t>
+          <t>205.34645602210236</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>230.44823307596425</t>
+          <t>230.44821440337563</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>205.423536745798</t>
+          <t>205.34645602210236</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>230.44823307596425</t>
+          <t>230.44821440337563</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1602,12 +1602,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>33.91852741022163</t>
+          <t>34.00453311326038</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>18.588795541208704</t>
+          <t>18.58884122891769</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1624,12 +1624,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>33.91852741022163</t>
+          <t>34.00453311326038</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>18.588795541208704</t>
+          <t>18.58884122891769</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1702,12 +1702,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>83.12101239962881</t>
+          <t>83.12396503215912</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>83.11029814767268</t>
+          <t>83.11029815323087</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-286.43537079552914</t>
+          <t>-370.11071248121584</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-267.5089047636174</t>
+          <t>-352.3973110706167</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>400.01600150312896</t>
+          <t>400.0203781948012</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>400.00000001906056</t>
+          <t>400.00000006528654</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1754,12 +1754,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-447.4557719056847</t>
+          <t>-447.4485632850573</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-434.3399250630805</t>
+          <t>-434.2556596899783</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1771,17 +1771,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>G6_1</t>
+          <t>G2_1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.1575542179293568e-08</t>
+          <t>400.01365175656707</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>399.9999999711167</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-393.7636856783737</t>
+          <t>-405.34501567680377</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-399.9369330133889</t>
+          <t>-399.31677414340663</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1808,17 +1808,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>G2_1</t>
+          <t>G3_1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>400.01070156725314</t>
+          <t>420.0136612826021</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>399.999999947968</t>
+          <t>420.0000001243778</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1828,12 +1828,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-464.237108083134</t>
+          <t>-475.483900432543</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-466.84754011685607</t>
+          <t>-478.3553304725763</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1845,17 +1845,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>G3_1</t>
+          <t>G4_1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>420.0107090794627</t>
+          <t>1.1436451558657515e-08</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>420.00000003693276</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1865,12 +1865,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-43.44141792005536</t>
+          <t>-85.2170887178028</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-33.43860240153059</t>
+          <t>-75.65694801372936</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1882,17 +1882,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>G4_1</t>
+          <t>G7_1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>444.9488913339339</t>
+          <t>367.1866882745552</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>447.9722760935854</t>
+          <t>369.5418046359829</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1902,12 +1902,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>26.515230221182037</t>
+          <t>26.524907576162022</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>33.0793007449767</t>
+          <t>33.14522429676157</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1919,17 +1919,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>G7_1</t>
+          <t>G6_1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>299.06751140115136</t>
+          <t>298.3466266932765</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>299.18528545045655</t>
+          <t>298.3705707254248</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1939,12 +1939,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-121.43028118560858</t>
+          <t>-127.10726477610858</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-123.00845957800266</t>
+          <t>-122.65667541510356</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1961,12 +1961,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>400.0107117442521</t>
+          <t>400.01366009466915</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>400.0000000426395</t>
+          <t>400.00000010461827</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1976,12 +1976,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-1.7626547730501168</t>
+          <t>16.14397724254905</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>9.155255929039347</t>
+          <t>27.464377064231904</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1998,12 +1998,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>400.0107117762259</t>
+          <t>400.01366014888606</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>400.0000000426386</t>
+          <t>400.00000010461713</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2013,12 +2013,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>931.3231136897642</t>
+          <t>570.1124307512079</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>913.319615444249</t>
+          <t>550.0787342707266</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2035,12 +2035,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>400.0160079316191</t>
+          <t>400.02037419472975</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>400.0000000418585</t>
+          <t>400.0000001033906</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2050,12 +2050,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1250.0244893172544</t>
+          <t>1250.1106839323784</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1275.0922429792292</t>
+          <t>1275.4577033343348</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2072,12 +2072,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>400.00882366876516</t>
+          <t>400.02077122683386</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>400.0000000428296</t>
+          <t>400.0000001049166</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2087,12 +2087,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1123.0641410837893</t>
+          <t>1050.3445779415138</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1120.0894207552028</t>
+          <t>1121.7878668229173</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2109,12 +2109,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>400.01070236344003</t>
+          <t>400.0136482301568</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>400.0000000426395</t>
+          <t>400.00000010461827</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -2124,12 +2124,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>777.6598440975966</t>
+          <t>789.3535810615879</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>786.7025194549373</t>
+          <t>798.6966843785054</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2141,17 +2141,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>G4_3</t>
+          <t>G6_3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>484.5749766598663</t>
+          <t>486.54270918996747</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>487.26620895936225</t>
+          <t>400.0000001049166</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2161,12 +2161,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>235.21810285327905</t>
+          <t>-124.6302240469875</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>216.19711453313798</t>
+          <t>-144.98340278672282</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2178,17 +2178,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>G6_3</t>
+          <t>G4_3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>400.0088038292438</t>
+          <t>400.020354152256</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>400.0000000428296</t>
+          <t>489.6956515663209</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -2198,12 +2198,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>945.1374753227476</t>
+          <t>945.2035018231031</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>960.9798341913202</t>
+          <t>961.2521230860257</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2220,12 +2220,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>400.01068979449974</t>
+          <t>400.01363673979336</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>400.00000014754715</t>
+          <t>400.0000002510848</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2235,12 +2235,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-22.72016561914465</t>
+          <t>-11.298022618455995</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>-13.810286468819832</t>
+          <t>-2.152026245141729</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2257,12 +2257,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>400.01069498856407</t>
+          <t>400.01364331410457</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>400.00000014754715</t>
+          <t>400.0000002510848</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2272,12 +2272,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>-160.41950426753817</t>
+          <t>-123.47879173467095</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-133.45546224613162</t>
+          <t>-96.28563325010553</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2294,12 +2294,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>400.015980481063</t>
+          <t>400.0203416920281</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>400.00000014747263</t>
+          <t>400.0000002509883</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2309,12 +2309,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>240.1187234766753</t>
+          <t>240.14216173451837</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>247.77905367676044</t>
+          <t>247.8539344209836</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2331,12 +2331,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>400.01068969246256</t>
+          <t>400.0136365767481</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>400.00000014754676</t>
+          <t>400.00000025108415</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2346,12 +2346,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-581.0901784757293</t>
+          <t>-568.5372194322081</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-596.352368751336</t>
+          <t>-595.6878187657503</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2368,12 +2368,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>496.91370693199116</t>
+          <t>497.1866032337492</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>500.0000000053641</t>
+          <t>500.0</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2383,12 +2383,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-22.868093181978196</t>
+          <t>-11.576012861190131</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-13.582449217689039</t>
+          <t>-2.054575667649822</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2405,12 +2405,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>170.4119208720831</t>
+          <t>170.4148650053815</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>170.40119939254944</t>
+          <t>170.4011994337996</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2420,12 +2420,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-459.7245264391584</t>
+          <t>-423.477521887094</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-434.62608405481103</t>
+          <t>-397.94455564101037</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2442,12 +2442,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>400.0160240665273</t>
+          <t>400.0203703335471</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>400.0000001245244</t>
+          <t>400.0000002207564</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2457,12 +2457,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-747.0773026658344</t>
+          <t>-747.0936249599337</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>-750.264016589022</t>
+          <t>-750.3461491030787</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>400.0158924728503</t>
+          <t>400.02508133822107</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>400.0000001387157</t>
+          <t>400.0000002395224</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2494,12 +2494,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>-802.7644715710127</t>
+          <t>-791.2273973392503</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>-789.3905069344004</t>
+          <t>-790.0060017868334</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2516,12 +2516,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>400.01071616695015</t>
+          <t>400.0136587818059</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>400.0000003420442</t>
+          <t>400.00000049327554</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-524.1482521169237</t>
+          <t>-512.9161014302367</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-517.0647100938057</t>
+          <t>-505.55685402196184</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2553,12 +2553,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>420.0107069188235</t>
+          <t>420.01364706299245</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>420.0000001226309</t>
+          <t>420.0000002229752</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2568,12 +2568,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-43.44141792005536</t>
+          <t>-85.2170887178028</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-33.43860240153059</t>
+          <t>-75.65694801372936</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2590,12 +2590,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>406.0283346858754</t>
+          <t>487.1742303207069</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>406.2048187845054</t>
+          <t>489.69560182389233</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>26.515230221182037</t>
+          <t>26.524907576162022</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>33.0793007449767</t>
+          <t>33.14522429676157</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2627,12 +2627,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>400.0159214643632</t>
+          <t>400.02559361558633</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>400.0000001387157</t>
+          <t>400.0000002395224</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2642,12 +2642,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>-121.43028118560858</t>
+          <t>-127.10726477610858</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>-123.00845957800266</t>
+          <t>-122.65667541510356</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>-1.7626547730501168</t>
+          <t>16.14397724254905</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>9.155255929039347</t>
+          <t>27.464377064231904</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2686,12 +2686,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-0.39891194135154406</t>
+          <t>16.70513251636386</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>-35.504900867410186</t>
+          <t>-17.757759163667455</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-0.39891194135154406</t>
+          <t>16.70513251636386</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>-35.504900867410186</t>
+          <t>-17.757759163667455</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2730,12 +2730,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>-77.66653006520221</t>
+          <t>-54.0102910765108</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>-97.57503972256676</t>
+          <t>-73.62645315293804</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2752,12 +2752,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-77.66653006520221</t>
+          <t>-54.0102910765108</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-97.57503972256676</t>
+          <t>-73.62645315293804</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2774,12 +2774,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>205.4975088354918</t>
+          <t>205.4093275917166</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>230.01377513457268</t>
+          <t>230.27367265075753</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2796,12 +2796,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>205.4975088354918</t>
+          <t>205.4093275917166</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>230.01377513457268</t>
+          <t>230.27367265075753</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2818,12 +2818,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>15.781488733261508</t>
+          <t>32.58164532699293</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>17.302260092102646</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2840,12 +2840,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>15.781488733261508</t>
+          <t>32.58164532699293</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>17.302260092102646</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2918,12 +2918,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>83.1222517134005</t>
+          <t>83.12279493505521</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>83.11029814767268</t>
+          <t>83.11029815323087</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-370.0719135665172</t>
+          <t>-286.55732543284506</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-352.3973146352773</t>
+          <t>-267.6420663049438</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -2955,12 +2955,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>400.01790721778235</t>
+          <t>400.0185530545135</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>400.00000001906056</t>
+          <t>400.00000006528654</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -2970,12 +2970,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-447.44675440150775</t>
+          <t>-447.4575752941055</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-434.25565960347774</t>
+          <t>-434.34090946899966</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -2987,17 +2987,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>G6_1</t>
+          <t>G2_1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>299.15777175196513</t>
+          <t>400.0124816345447</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>299.1852854504555</t>
+          <t>399.9999999711167</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -3007,12 +3007,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-392.8895321734267</t>
+          <t>-405.86553100989545</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-399.3167741801423</t>
+          <t>-399.9505212718153</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -3024,17 +3024,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>G2_1</t>
+          <t>G3_1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>400.0119403676428</t>
+          <t>420.0124900629203</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>399.999999947968</t>
+          <t>420.0000001243778</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-475.50981043475156</t>
+          <t>-464.20108639151016</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-478.3553282696089</t>
+          <t>-466.85468507336816</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -3061,17 +3061,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>G3_1</t>
+          <t>G4_1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>420.0119489548945</t>
+          <t>444.36767892769046</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>420.00000003693276</t>
+          <t>447.15851592102007</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -3081,12 +3081,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-85.2020742214221</t>
+          <t>-43.49704120612734</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-75.65694968269315</t>
+          <t>-33.50442327231615</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -3098,17 +3098,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>G4_1</t>
+          <t>G7_1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.1435785927227287e-08</t>
+          <t>299.8865538753834</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>299.999999993509</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -3118,12 +3118,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>26.525002000478445</t>
+          <t>26.515206846928265</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>33.14522428518357</t>
+          <t>33.07853612729745</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -3135,17 +3135,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>G7_1</t>
+          <t>G6_1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>366.249268614422</t>
+          <t>1.157724295107339e-08</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>368.72710251565513</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -3155,12 +3155,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-120.94751135889355</t>
+          <t>-127.41476393925407</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-122.65667542661507</t>
+          <t>-123.01512650354267</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -3177,12 +3177,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>400.0119486343775</t>
+          <t>400.01249244012456</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>400.0000000426395</t>
+          <t>400.00000010461827</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -3192,12 +3192,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>16.17626104170673</t>
+          <t>-1.8112688602724574</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>27.464373832639648</t>
+          <t>9.166183264133833</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -3214,12 +3214,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>400.01194865982256</t>
+          <t>400.01249250408904</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>400.0000000426386</t>
+          <t>400.00000010461713</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -3229,12 +3229,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>570.0799076474718</t>
+          <t>930.8562198230295</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>550.0787375447659</t>
+          <t>912.6382528149117</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -3251,12 +3251,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>400.01790164931987</t>
+          <t>400.01856350383093</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>400.0000000418585</t>
+          <t>400.0000001033906</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -3266,12 +3266,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1250.1007452000563</t>
+          <t>1250.0353433151658</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1275.4577028986657</t>
+          <t>1275.087923933143</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -3288,12 +3288,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>400.0148771973279</t>
+          <t>400.01492541134616</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>400.0000000428296</t>
+          <t>400.0000001049166</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -3303,12 +3303,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1124.5367988422636</t>
+          <t>1050.9471797485594</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1121.7878662666412</t>
+          <t>1120.0678000906246</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -3325,12 +3325,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>400.01193792506666</t>
+          <t>400.0124819218394</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>400.0000000426395</t>
+          <t>400.00000010461827</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -3340,12 +3340,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>789.3081506050373</t>
+          <t>777.6969877477848</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>798.6966822820011</t>
+          <t>786.7086251270548</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -3357,17 +3357,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>G4_3</t>
+          <t>G6_3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>487.01604470431306</t>
+          <t>484.11116164413494</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>489.6956510425828</t>
+          <t>400.0000001049166</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -3377,12 +3377,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-124.61958733349158</t>
+          <t>234.70042480696935</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-144.98340060574216</t>
+          <t>215.51631001147155</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -3394,17 +3394,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>G6_3</t>
+          <t>G4_3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>400.01485465323793</t>
+          <t>400.0185458667809</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>400.0000000428296</t>
+          <t>487.2310398238911</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -3414,12 +3414,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>945.1961514192972</t>
+          <t>945.1455200701841</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>961.2521227708967</t>
+          <t>960.9766216658892</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -3436,12 +3436,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>400.0119272195016</t>
+          <t>400.012467950895</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>400.00000014754715</t>
+          <t>400.0000002510848</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -3451,12 +3451,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-11.29738171192836</t>
+          <t>-22.730186376786854</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>-2.1520282195505653</t>
+          <t>-13.803786974520724</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -3473,12 +3473,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>400.011933114765</t>
+          <t>400.01247376516426</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>400.00000014754715</t>
+          <t>400.0000002510848</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -3488,12 +3488,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>-123.4505317581116</t>
+          <t>-160.35541462078243</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-96.28563728644014</t>
+          <t>-133.35886603825372</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -3510,12 +3510,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>400.0178758746012</t>
+          <t>400.01852793841937</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>400.00000014747263</t>
+          <t>400.0000002509883</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -3525,12 +3525,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>240.14030232651152</t>
+          <t>240.12080961058112</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>247.85393436072334</t>
+          <t>247.77820312786187</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -3547,12 +3547,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>400.0119270394817</t>
+          <t>400.01246787801335</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>400.00000014754676</t>
+          <t>400.00000025108415</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -3562,12 +3562,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-580.595240933685</t>
+          <t>-569.381969137846</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-595.6878186693785</t>
+          <t>-596.3746760437008</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3584,12 +3584,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>497.0104932939664</t>
+          <t>497.12699717362466</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>500.000015</t>
+          <t>500.0</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -3599,12 +3599,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-11.557641537278874</t>
+          <t>-22.896269669630648</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-2.054577656591369</t>
+          <t>-13.57565125786085</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3621,12 +3621,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>170.41315202641647</t>
+          <t>170.41370428598879</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>170.40119939254944</t>
+          <t>170.4011994337996</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -3636,12 +3636,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-423.4332915795554</t>
+          <t>-459.6805357927351</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-397.9445601001838</t>
+          <t>-434.5294165016873</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3658,12 +3658,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>400.0179013199329</t>
+          <t>400.0185788693385</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>400.0000001245244</t>
+          <t>400.0000002207564</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -3673,12 +3673,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-747.0902856324519</t>
+          <t>-747.080855878366</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>-750.3461488845381</t>
+          <t>-750.2630574003699</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3695,12 +3695,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>400.0218462096212</t>
+          <t>400.01923505740393</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>400.0000001387157</t>
+          <t>400.0000002395224</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -3710,12 +3710,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>-803.6354976393092</t>
+          <t>-790.70887381856</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>-790.0060015669537</t>
+          <t>-789.377022538611</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3732,12 +3732,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>400.0119467455159</t>
+          <t>400.0124986502848</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>400.0000003420442</t>
+          <t>400.00000049327554</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -3747,12 +3747,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-512.8849422386529</t>
+          <t>-524.1897331398909</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-505.5568559339886</t>
+          <t>-517.0575656943358</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3769,12 +3769,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>420.01193637688</t>
+          <t>420.01248809201417</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>420.0000001226309</t>
+          <t>420.0000002229752</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -3784,12 +3784,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-85.2020742214221</t>
+          <t>-43.49704120612734</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-75.65694968269315</t>
+          <t>-33.50442327231615</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3806,12 +3806,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>487.01599598063245</t>
+          <t>406.0712565663623</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>489.69560128358694</t>
+          <t>406.2329242331005</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -3821,12 +3821,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>26.525002000478445</t>
+          <t>26.515206846928265</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>33.14522428518357</t>
+          <t>33.07853612729745</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>400.02229426641696</t>
+          <t>400.0193304407306</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>400.0000001387157</t>
+          <t>400.0000002395224</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -3858,12 +3858,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>-120.94751135889355</t>
+          <t>-127.41476393925407</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>-122.65667542661507</t>
+          <t>-123.01512650354267</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3880,12 +3880,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>16.17626104170673</t>
+          <t>-1.8112688602724574</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>27.464373832639648</t>
+          <t>9.166183264133833</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3902,12 +3902,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>16.749671607754532</t>
+          <t>-0.481465646853813</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>-17.757755324998854</t>
+          <t>-35.52308853738587</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3924,12 +3924,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>16.749671607754532</t>
+          <t>-0.481465646853813</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>-17.757755324998854</t>
+          <t>-35.52308853738587</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3946,12 +3946,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>-54.04911831324998</t>
+          <t>-77.6305069757155</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>-73.62644910623433</t>
+          <t>-97.55692975289261</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3968,12 +3968,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-54.04911831324998</t>
+          <t>-77.6305069757155</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-73.62644910623433</t>
+          <t>-97.55692975289261</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -3990,12 +3990,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>205.4953385927314</t>
+          <t>205.39306492598786</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>230.27366465678466</t>
+          <t>230.01071872006526</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4012,12 +4012,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>205.4953385927314</t>
+          <t>205.39306492598786</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>230.27366465678466</t>
+          <t>230.01071872006526</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4034,12 +4034,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>32.491527135790164</t>
+          <t>15.834617986578175</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>17.302264055716705</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4056,12 +4056,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>32.491527135790164</t>
+          <t>15.834617986578175</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>17.302264055716705</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4134,12 +4134,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>83.12441698859088</t>
+          <t>83.12626452847</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>83.11029814767268</t>
+          <t>83.11029815323087</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -4149,12 +4149,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-274.5214368404158</t>
+          <t>-274.52713631087863</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-255.29588418297897</t>
+          <t>-255.29588058661997</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -4171,12 +4171,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>400.02115247400695</t>
+          <t>400.0238127967917</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>400.00000001906056</t>
+          <t>400.00000006528654</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -4186,12 +4186,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-447.4453992322187</t>
+          <t>-447.447428498746</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-434.18145547667956</t>
+          <t>-434.181458660143</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -4203,17 +4203,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>G6_1</t>
+          <t>G2_1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>299.1978666180938</t>
+          <t>400.0159481563659</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>299.1852854504555</t>
+          <t>399.9999999711167</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -4223,12 +4223,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-542.1678074660439</t>
+          <t>-555.1322327780878</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-549.5722594379711</t>
+          <t>-549.5722757422277</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -4240,17 +4240,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>G2_1</t>
+          <t>G3_1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>400.01410290132</t>
+          <t>420.0159593922253</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>399.999999947968</t>
+          <t>420.0000001243778</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -4260,12 +4260,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-457.99775438595594</t>
+          <t>-457.96419395425823</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-460.80407866673926</t>
+          <t>-460.8040713094649</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -4277,17 +4277,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>G3_1</t>
+          <t>G4_1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>420.0141132056726</t>
+          <t>455.0951193816844</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>420.00000003693276</t>
+          <t>457.2371533583695</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -4297,12 +4297,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-37.11042356776436</t>
+          <t>-37.10960303018056</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-26.990410167661793</t>
+          <t>-26.99040814123711</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -4314,17 +4314,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>G4_1</t>
+          <t>G7_1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>454.8734876839973</t>
+          <t>313.2096779654987</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>457.2371681848651</t>
+          <t>313.5318483772946</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -4334,12 +4334,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>26.528339792245852</t>
+          <t>26.528164064507283</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>33.20283828408615</t>
+          <t>33.202831685439584</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -4351,17 +4351,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>G7_1</t>
+          <t>G6_1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>312.363989068072</t>
+          <t>298.3867178371533</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>312.7170451104068</t>
+          <t>298.3705707254248</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -4371,12 +4371,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-195.25380189015488</t>
+          <t>-201.65008399634507</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-197.08547707906058</t>
+          <t>-197.08548419718582</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -4393,12 +4393,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>400.014114084156</t>
+          <t>400.0159600141928</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>400.0000000426395</t>
+          <t>400.00000010461827</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -4408,12 +4408,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-11.61712465936506</t>
+          <t>-11.663130065966463</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-0.2198757349489619</t>
+          <t>-0.21988437375808292</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -4430,12 +4430,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>400.0141141177237</t>
+          <t>400.01596009088547</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>400.0000000426386</t>
+          <t>400.00000010461713</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -4445,12 +4445,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>928.6166337661837</t>
+          <t>928.8391736902024</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>909.7233690625185</t>
+          <t>909.7233502767532</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.1369313843023674e-08</t>
+          <t>1.136974136905786e-08</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4482,12 +4482,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1250.1381455836292</t>
+          <t>1250.148361987246</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1275.7829057825443</t>
+          <t>1275.7828943132768</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -4504,12 +4504,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>400.0054647778589</t>
+          <t>400.0120288308813</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>400.0000000428296</t>
+          <t>400.0000001049166</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -4519,12 +4519,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>877.3619356029908</t>
+          <t>800.328384147582</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>875.579162307597</t>
+          <t>875.5791594716266</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>400.01410154507124</t>
+          <t>400.01594621240724</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>400.0000000426395</t>
+          <t>400.00000010461827</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -4556,12 +4556,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>771.6522587102861</t>
+          <t>771.6875862154113</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>781.2664753231052</t>
+          <t>781.2664828396134</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -4573,17 +4573,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>G4_3</t>
+          <t>G6_3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>490.2086276318452</t>
+          <t>489.73025159678235</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>492.23875070990124</t>
+          <t>400.0000001049166</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -4593,12 +4593,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>228.42306508701998</t>
+          <t>228.60916471741342</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>208.4949336849498</t>
+          <t>208.49491012036742</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -4610,17 +4610,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>G6_3</t>
+          <t>G4_3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>400.0054426818064</t>
+          <t>400.02379516611904</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>400.0000000428296</t>
+          <t>492.2387336840374</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -4630,12 +4630,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>945.2246081745232</t>
+          <t>945.2321467421939</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>961.4939095257297</t>
+          <t>961.4938978793728</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -4652,12 +4652,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>400.01409994188754</t>
+          <t>400.01594491669164</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>400.00000014754715</t>
+          <t>400.0000002510848</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -4667,12 +4667,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-28.825313253797496</t>
+          <t>-28.835076414067295</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>-19.494991978833447</t>
+          <t>-19.494991831178087</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -4689,12 +4689,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>400.014106889893</t>
+          <t>400.01595263699966</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>400.00000014754715</t>
+          <t>400.0000002510848</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -4704,12 +4704,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>-145.4333647382417</t>
+          <t>-145.49342672511537</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-117.87347822540507</t>
+          <t>-117.87346649261052</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -4726,12 +4726,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>400.02114269841195</t>
+          <t>400.02380114840236</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>400.00000014747263</t>
+          <t>400.0000002509883</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -4741,12 +4741,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>240.14987848093216</t>
+          <t>240.15173509486237</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>247.91817048642164</t>
+          <t>247.91816049437992</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -4763,12 +4763,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>400.0140996995789</t>
+          <t>400.01594467873986</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>400.00000014754676</t>
+          <t>400.00000025108415</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -4778,12 +4778,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-825.2075513308602</t>
+          <t>-812.8400371216818</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-839.4815107511698</t>
+          <t>-839.4815493896775</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -4800,12 +4800,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>497.7972825283207</t>
+          <t>498.0041351619245</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>500.000015</t>
+          <t>500.0</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -4815,12 +4815,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-29.025405886339453</t>
+          <t>-29.0520470282353</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-19.451547380194967</t>
+          <t>-19.45155362207868</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -4837,12 +4837,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>170.4153218767354</t>
+          <t>170.41716970693471</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>170.40119939254944</t>
+          <t>170.4011994337996</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -4852,12 +4852,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-446.2531172976208</t>
+          <t>-446.3280510202403</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-420.5417706496293</t>
+          <t>-420.5417594759592</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -4874,12 +4874,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>400.02116039370657</t>
+          <t>400.02382111024605</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>400.0000001245244</t>
+          <t>400.0000002207564</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -4889,12 +4889,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-747.0982714054633</t>
+          <t>-747.1017965544489</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>-750.4184750014233</t>
+          <t>-750.4184722054563</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -4911,12 +4911,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>400.0230749660975</t>
+          <t>400.02648535140474</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>400.0000001387157</t>
+          <t>400.0000002395224</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -4926,12 +4926,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>-654.7039830528918</t>
+          <t>-641.7558333180697</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>-640.8114814185491</t>
+          <t>-640.811465347531</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -4948,12 +4948,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>400.01411560062076</t>
+          <t>400.01596247945616</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>400.0000003420442</t>
+          <t>400.00000049327554</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -4963,12 +4963,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-530.3956187824452</t>
+          <t>-530.4348159676831</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-523.1080625397858</t>
+          <t>-523.1080701872219</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -4985,12 +4985,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>420.0141035552782</t>
+          <t>420.0159490063176</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>420.0000001226309</t>
+          <t>420.0000002229752</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -5000,12 +5000,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-37.11042356776436</t>
+          <t>-37.10960303018056</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-26.990410167661793</t>
+          <t>-26.99040814123711</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -5022,12 +5022,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>490.2072153312842</t>
+          <t>490.39821994367674</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>492.2373000735294</t>
+          <t>492.23728662944694</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -5037,12 +5037,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>26.528339792245852</t>
+          <t>26.528164064507283</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>33.20283828408615</t>
+          <t>33.202831685439584</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -5059,12 +5059,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>400.02332995125846</t>
+          <t>400.0268023220036</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>400.0000001387157</t>
+          <t>400.0000002395224</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -5074,12 +5074,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>-195.25380189015488</t>
+          <t>-201.65008399634507</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>-197.08547707906058</t>
+          <t>-197.08548419718582</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -5096,12 +5096,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>-11.61712465936506</t>
+          <t>-11.663130065966463</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>-0.2198757349489619</t>
+          <t>-0.21988437375808292</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -5118,12 +5118,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-142.56012175021607</t>
+          <t>-142.67424889328248</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>-178.14440080332758</t>
+          <t>-178.14443163105486</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -5140,12 +5140,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-142.56012175021607</t>
+          <t>-142.67424889328248</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>-178.14440080332758</t>
+          <t>-178.14443163105486</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -5162,12 +5162,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>-90.34947268248285</t>
+          <t>-90.3120974631009</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>-110.65113408810343</t>
+          <t>-110.65114149045124</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-90.34947268248285</t>
+          <t>-90.3120974631009</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-110.65113408810343</t>
+          <t>-110.65114149045124</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -5206,12 +5206,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>205.11541666115323</t>
+          <t>205.01372473235008</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>230.50383752028614</t>
+          <t>230.50383238161157</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -5228,12 +5228,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>205.11541666115323</t>
+          <t>205.01372473235008</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>230.50383752028614</t>
+          <t>230.50383238161157</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -5250,12 +5250,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>70.63827303348074</t>
+          <t>70.76333028888615</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>55.00198480207425</t>
+          <t>55.00198298609151</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -5272,12 +5272,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>70.63827303348074</t>
+          <t>70.76333028888615</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>55.00198480207425</t>
+          <t>55.00198298609151</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -5350,12 +5350,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>83.14937816296968</t>
+          <t>83.1539184868459</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>83.11029814767268</t>
+          <t>83.11029815323087</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -5365,12 +5365,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-237.41646558957987</t>
+          <t>-237.42660177950648</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-212.94958347228157</t>
+          <t>-212.9497319722256</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -5387,12 +5387,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>400.05389977389086</t>
+          <t>400.05993696862396</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>400.00000001906056</t>
+          <t>400.00000006528654</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -5402,12 +5402,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-181.61172295769592</t>
+          <t>-181.61614136685358</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-169.3530106749177</t>
+          <t>-169.3530426625828</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -5419,17 +5419,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>G6_1</t>
+          <t>G2_1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>299.2336993234068</t>
+          <t>400.04359134926364</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>299.1852854504555</t>
+          <t>399.9999999711167</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -5439,12 +5439,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-390.0623617573588</t>
+          <t>-403.5574096515927</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-399.4036276409667</t>
+          <t>-399.4035936005914</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -5456,17 +5456,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>G2_1</t>
+          <t>G3_1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>400.0390543022492</t>
+          <t>420.04360573301653</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>399.999999947968</t>
+          <t>420.0000001243778</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -5476,12 +5476,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-516.2727356606399</t>
+          <t>-516.285051273405</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-520.4203681056134</t>
+          <t>-520.4203672593245</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -5493,17 +5493,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>G3_1</t>
+          <t>G4_1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>420.03906778384595</t>
+          <t>399.85606331859066</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>420.00000003693276</t>
+          <t>397.18161543516896</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -5513,12 +5513,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-18.667880736136855</t>
+          <t>-18.668899119592734</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-6.061844359890346</t>
+          <t>-6.061919932855925</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -5530,17 +5530,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>G4_1</t>
+          <t>G7_1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>399.73365108787414</t>
+          <t>300.0554691081164</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>397.18210152886655</t>
+          <t>299.999999993509</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -5550,12 +5550,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>151.949276901504</t>
+          <t>151.94802807986912</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>158.2064987965963</t>
+          <t>158.20647329632288</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -5567,17 +5567,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>G7_1</t>
+          <t>G6_1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>299.233744641762</t>
+          <t>298.42598823948333</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>299.18528545045655</t>
+          <t>298.3705707254248</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -5587,12 +5587,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-119.53663219807589</t>
+          <t>-126.21058046002899</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-122.6787598694181</t>
+          <t>-122.67874481585375</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -5609,12 +5609,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>400.039051601222</t>
+          <t>400.0435852361684</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>400.0000000426395</t>
+          <t>400.00000010461827</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -5624,12 +5624,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>79.28844639244997</t>
+          <t>79.3069650389568</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>92.4444980751815</t>
+          <t>92.4444772425206</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -5646,12 +5646,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>400.0390517145309</t>
+          <t>400.0435854374921</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>400.0000000426386</t>
+          <t>400.00000010461713</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -5661,12 +5661,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>836.7297929109494</t>
+          <t>836.8602721486149</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>808.1682229124119</t>
+          <t>808.1678880697003</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -5683,12 +5683,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>400.05386615062326</t>
+          <t>400.059908342283</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>400.0000000418585</t>
+          <t>400.0000001033906</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -5698,12 +5698,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1328.60561074317</t>
+          <t>1328.6138917437113</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1351.9427102410923</t>
+          <t>1351.9425894803624</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -5720,12 +5720,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>400.05110121607635</t>
+          <t>400.0606852619732</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>400.0000000428296</t>
+          <t>400.0000001049166</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -5735,12 +5735,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1129.1304962582178</t>
+          <t>1048.647166394141</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1121.7928574184377</t>
+          <t>1121.7928840498785</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -5757,12 +5757,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>400.03903424696705</t>
+          <t>400.0435666732759</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>400.0000000426395</t>
+          <t>400.00000010461827</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -5772,12 +5772,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>824.1140201738863</t>
+          <t>824.1861782679787</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>834.3380183384406</t>
+          <t>834.337959498351</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -5789,17 +5789,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>G4_3</t>
+          <t>G6_3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>494.42067180213627</t>
+          <t>493.95812915603955</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>489.6223989084202</t>
+          <t>400.0000001049166</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -5809,12 +5809,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>136.61907999818646</t>
+          <t>136.7095693943777</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>107.34045191485251</t>
+          <t>107.3401292326255</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -5826,17 +5826,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>G6_3</t>
+          <t>G4_3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>400.0510480018538</t>
+          <t>400.0598816490605</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>400.0000000428296</t>
+          <t>489.6224558048556</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -5846,12 +5846,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1030.3210629116038</t>
+          <t>1030.3269575945642</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1044.1493825975244</t>
+          <t>1044.1492888393534</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -5868,12 +5868,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>400.03910615195844</t>
+          <t>400.04364890668694</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>400.00000014754715</t>
+          <t>400.0000002510848</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -5883,12 +5883,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>26.04063185327412</t>
+          <t>26.06418756587926</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>36.233654884301615</t>
+          <t>36.23361966013221</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -5905,7 +5905,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.1663549267138326e-08</t>
+          <t>1.1258672473841616e-08</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5920,12 +5920,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>-77.80491398476336</t>
+          <t>-77.8361755061963</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-42.303930951068445</t>
+          <t>-42.303973888396435</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -5942,12 +5942,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>400.05398396447254</t>
+          <t>400.0600294812434</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>400.00000014747263</t>
+          <t>400.0000002509883</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -5957,12 +5957,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>342.9978173732419</t>
+          <t>342.9985380712002</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>348.14820982016215</t>
+          <t>348.1481763268732</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -5979,12 +5979,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>400.0391045689154</t>
+          <t>400.0436472069506</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>400.00000014754676</t>
+          <t>400.00000025108415</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -5994,12 +5994,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-576.0459464846961</t>
+          <t>-562.9047726626436</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-595.7624490208523</t>
+          <t>-595.762380044168</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -6016,12 +6016,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>499.9733206966414</t>
+          <t>499.9732948120906</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>500.000000000035</t>
+          <t>500.000015</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -6031,12 +6031,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>27.393961338230177</t>
+          <t>27.405725615989716</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>38.036344370832914</t>
+          <t>38.0363280582136</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -6053,12 +6053,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>170.44028383474264</t>
+          <t>170.44482410229895</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>170.40119939254944</t>
+          <t>170.4011994337996</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-378.1946677945368</t>
+          <t>-378.2420840221704</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-344.04564308569945</t>
+          <t>-344.04568075296334</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -6090,12 +6090,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>400.0538958717716</t>
+          <t>400.05993095432495</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>400.0000001245244</t>
+          <t>400.0000002207564</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -6105,12 +6105,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-614.4289809278785</t>
+          <t>-614.4336443261044</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>-618.5059015771587</t>
+          <t>-618.505870603702</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -6127,12 +6127,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>400.0034258039811</t>
+          <t>400.0102801261779</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>400.0000001387157</t>
+          <t>400.0000002395224</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -6142,12 +6142,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>-806.5327343520973</t>
+          <t>-793.0975618838538</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>-789.9197377418423</t>
+          <t>-789.9197717050562</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -6164,12 +6164,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>400.0390724962383</t>
+          <t>400.043611279537</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>400.0000003420442</t>
+          <t>400.00000049327554</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -6179,12 +6179,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-472.1651423506994</t>
+          <t>-472.16658207384137</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-463.49448775894155</t>
+          <t>-463.49448890763796</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -6201,12 +6201,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>420.0390574720907</t>
+          <t>420.0435948710013</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>420.0000001226309</t>
+          <t>420.0000002229752</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -6216,12 +6216,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-18.667880736136855</t>
+          <t>-18.668899119592734</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-6.061844359890346</t>
+          <t>-6.061919932855925</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -6238,12 +6238,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>494.42190173202675</t>
+          <t>494.6500196207004</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>489.62354149666953</t>
+          <t>489.6235778586429</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -6253,12 +6253,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>151.949276901504</t>
+          <t>151.94802807986912</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>158.2064987965963</t>
+          <t>158.20647329632288</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -6275,12 +6275,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>399.99824158671566</t>
+          <t>400.00516471245766</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>400.0000001387157</t>
+          <t>400.0000002395224</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -6290,12 +6290,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>-119.53663219807589</t>
+          <t>-126.21058046002899</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>-122.6787598694181</t>
+          <t>-122.67874481585375</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -6312,12 +6312,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>79.28844639244997</t>
+          <t>79.3069650389568</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>92.4444980751815</t>
+          <t>92.4444772425206</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -6334,12 +6334,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-56.502246726863476</t>
+          <t>-56.541893611959566</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>-101.54869981487138</t>
+          <t>-101.54857573829929</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-56.502246726863476</t>
+          <t>-56.541893611959566</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>-101.54869981487138</t>
+          <t>-101.54857573829929</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -6378,12 +6378,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>-142.73927135378395</t>
+          <t>-142.71753995492696</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>-169.3867627775037</t>
+          <t>-169.38667110289722</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -6400,12 +6400,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-142.73927135378395</t>
+          <t>-142.71753995492696</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-169.3867627775037</t>
+          <t>-169.38667110289722</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -6422,12 +6422,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>373.59546159298463</t>
+          <t>373.5950803651262</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>402.8984927623025</t>
+          <t>402.8983925374032</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -6444,12 +6444,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>373.59546159298463</t>
+          <t>373.5950803651262</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>402.8984927623025</t>
+          <t>402.8983925374032</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -6466,12 +6466,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>-44.40019049797237</t>
+          <t>-44.33726832227957</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>-65.90985064789515</t>
+          <t>-65.90978184139074</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -6488,12 +6488,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>-44.40019049797237</t>
+          <t>-44.33726832227957</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>-65.90985064789515</t>
+          <t>-65.90978184139074</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -6566,12 +6566,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>83.14769267104082</t>
+          <t>83.15206131103587</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>83.11029814767268</t>
+          <t>83.11029815323087</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -6581,12 +6581,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-230.77311663758408</t>
+          <t>-230.7741756306744</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-206.70613723019576</t>
+          <t>-206.7059224873527</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -6603,12 +6603,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>400.05196112569377</t>
+          <t>400.05780608706215</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>400.00000001906056</t>
+          <t>400.00000006528654</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -6618,12 +6618,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-453.4222170204697</t>
+          <t>-453.429259087712</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-443.8417266603692</t>
+          <t>-443.8417492714933</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -6635,17 +6635,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>G6_1</t>
+          <t>G2_1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>299.2306546660486</t>
+          <t>400.0417337106219</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>299.1852854504555</t>
+          <t>399.9999999711167</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -6655,12 +6655,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-389.5986021895543</t>
+          <t>-403.2700787021551</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-399.03777730123477</t>
+          <t>-399.03811576282135</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -6672,17 +6672,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>G2_1</t>
+          <t>G3_1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>400.0373684135911</t>
+          <t>420.0417487025244</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>399.999999947968</t>
+          <t>420.0000001243778</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-518.9447791103498</t>
+          <t>-518.9555369401468</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-522.8872538000884</t>
+          <t>-522.8871836467999</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -6709,17 +6709,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>G3_1</t>
+          <t>G4_1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>420.03738252420396</t>
+          <t>416.9638832968464</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>420.00000003693276</t>
+          <t>413.2307078482822</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -6729,12 +6729,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-15.369945002454283</t>
+          <t>-15.36638825631712</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-2.9611152852046607</t>
+          <t>-2.9610121968882765</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -6746,17 +6746,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>G4_1</t>
+          <t>G7_1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>416.8064662056214</t>
+          <t>300.0522491757989</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>413.2298361258252</t>
+          <t>299.999999993509</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -6766,12 +6766,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>20.853988556935025</t>
+          <t>20.851411304263717</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>25.40031502438065</t>
+          <t>25.400295685865693</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -6783,17 +6783,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>G7_1</t>
+          <t>G6_1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>299.23069827408955</t>
+          <t>298.4227699034362</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>299.18528545045655</t>
+          <t>298.3705707254248</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -6803,12 +6803,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-119.30980927826818</t>
+          <t>-126.07099620450165</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-122.50100035928007</t>
+          <t>-122.50117180949955</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -6825,12 +6825,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>400.03737108848554</t>
+          <t>400.04173365473326</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>400.0000000426395</t>
+          <t>400.00000010461827</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -6840,12 +6840,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>83.33047292774185</t>
+          <t>83.34765709891478</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>96.07548071895648</t>
+          <t>96.07534932439157</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -6862,12 +6862,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>400.03737120256164</t>
+          <t>400.0417338454596</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>400.0000000426386</t>
+          <t>400.00000010461713</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -6877,12 +6877,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>847.1979811834636</t>
+          <t>847.3541036339693</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>818.0390971599262</t>
+          <t>818.0397622441841</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -6899,12 +6899,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>400.05193964590114</t>
+          <t>400.05779057649016</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>400.0000000418585</t>
+          <t>400.0000001033906</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -6914,12 +6914,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1210.9001251065229</t>
+          <t>1210.909550048077</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1236.0396964436104</t>
+          <t>1236.039616989489</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -6936,12 +6936,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>400.04887357979965</t>
+          <t>400.0583428188561</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>400.0000000428296</t>
+          <t>400.0000001049166</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -6951,12 +6951,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1129.8802636571518</t>
+          <t>1048.3662122136734</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1122.3430253330523</t>
+          <t>1122.3422796619677</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -6973,12 +6973,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>400.03735306644234</t>
+          <t>400.04171431616277</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>400.0000000426395</t>
+          <t>400.00000010461827</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -6988,12 +6988,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>826.0031429556311</t>
+          <t>826.0760551217429</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>835.9662233411652</t>
+          <t>835.9660797396014</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -7005,17 +7005,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>G4_3</t>
+          <t>G6_3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>495.6304529930126</t>
+          <t>495.15017383415363</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>490.53183826503977</t>
+          <t>400.0000001049166</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -7025,12 +7025,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>147.14538428970081</t>
+          <t>147.26103673310305</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>117.24886711052271</t>
+          <t>117.24954979632626</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -7042,17 +7042,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>G6_3</t>
+          <t>G4_3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>400.0488191967578</t>
+          <t>400.0577623629755</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>400.0000000428296</t>
+          <t>490.5307414051658</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -7062,12 +7062,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>914.8866592499859</t>
+          <t>914.893085447736</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>931.6202009455881</t>
+          <t>931.6201369815802</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -7084,12 +7084,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>400.03742236191533</t>
+          <t>400.0417936377734</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>400.00000014754715</t>
+          <t>400.0000002510848</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -7099,12 +7099,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>28.286036929442126</t>
+          <t>28.30954347160022</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>38.2074894320275</t>
+          <t>38.20737393716975</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -7121,12 +7121,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>400.03743173045166</t>
+          <t>400.0418035906833</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>400.00000014754715</t>
+          <t>400.0000002510848</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -7136,12 +7136,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>-74.75157515780043</t>
+          <t>-74.78197106352678</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-39.47771895501944</t>
+          <t>-39.477741747908766</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -7158,7 +7158,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.1555146670360198e-08</t>
+          <t>1.1555802037457988e-08</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -7173,12 +7173,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>228.60324752376255</t>
+          <t>228.60328199592323</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>238.2921159512757</t>
+          <t>238.29208879348477</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -7195,12 +7195,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>400.03742089120067</t>
+          <t>400.04179206295623</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>400.00000014754676</t>
+          <t>400.00000025108415</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -7210,12 +7210,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-575.224594739897</t>
+          <t>-561.9259527736481</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-595.1411212177295</t>
+          <t>-595.1415639496769</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -7232,12 +7232,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>499.97332157803436</t>
+          <t>499.97329558721344</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>500.00000000269955</t>
+          <t>500.0</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -7247,12 +7247,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>29.84896561678478</t>
+          <t>29.859910757896632</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>40.24334968865274</t>
+          <t>40.24326942917551</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -7269,12 +7269,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>170.4386014784676</t>
+          <t>170.44297041786282</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>170.40119939254944</t>
+          <t>170.4011994337996</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -7284,12 +7284,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-375.0822545487878</t>
+          <t>-375.1290091551556</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-341.1474852578965</t>
+          <t>-341.1474989568815</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -7306,12 +7306,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>400.05196711376317</t>
+          <t>400.05781133202277</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>400.0000001245244</t>
+          <t>400.0000002207564</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -7321,12 +7321,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-741.0499733198669</t>
+          <t>-741.0560444886909</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>-741.0030058121672</t>
+          <t>-741.0029840782423</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -7343,12 +7343,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>399.9938250544807</t>
+          <t>400.0005078290452</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>400.0000001387157</t>
+          <t>400.0000002395224</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -7358,12 +7358,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>-806.9901160493711</t>
+          <t>-793.3787005655342</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>-790.282791606747</t>
+          <t>-790.2824559042916</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -7380,12 +7380,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>400.037390466321</t>
+          <t>400.04175789227776</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>400.0000003420442</t>
+          <t>400.00000049327554</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -7395,12 +7395,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-469.480900037909</t>
+          <t>-469.4833964408042</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-461.0272444226921</t>
+          <t>-461.02731487800656</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -7417,12 +7417,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>420.0373749898077</t>
+          <t>420.0417410424762</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>420.0000001226309</t>
+          <t>420.0000002229752</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -7432,12 +7432,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-15.369945002454283</t>
+          <t>-15.36638825631712</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-2.9611152852046607</t>
+          <t>-2.9610121968882765</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -7454,12 +7454,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>495.63100512475586</t>
+          <t>495.8521683489874</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>490.5323381955787</t>
+          <t>490.5319689750658</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -7469,12 +7469,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>20.853988556935025</t>
+          <t>20.851411304263717</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>25.40031502438065</t>
+          <t>25.400295685865693</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -7491,12 +7491,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>399.9878437334531</t>
+          <t>399.9945976609733</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>400.0000001387157</t>
+          <t>400.0000002395224</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -7506,12 +7506,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>-119.30980927826818</t>
+          <t>-126.07099620450165</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>-122.50100035928007</t>
+          <t>-122.50117180949955</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -7528,12 +7528,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>83.33047292774185</t>
+          <t>83.34765709891478</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>96.07548071895648</t>
+          <t>96.07534932439157</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -7550,12 +7550,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-60.25910104588198</t>
+          <t>-60.31031576604181</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>-105.08062982392028</t>
+          <t>-105.08100021961368</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -7572,12 +7572,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-60.25910104588198</t>
+          <t>-60.31031576604181</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>-105.08062982392028</t>
+          <t>-105.08100021961368</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -7594,12 +7594,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>-147.58093070876004</t>
+          <t>-147.5637893758157</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>-173.92964602901358</t>
+          <t>-173.929745149259</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -7616,12 +7616,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-147.58093070876004</t>
+          <t>-147.5637893758157</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-173.92964602901358</t>
+          <t>-173.929745149259</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -7638,12 +7638,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>383.520115709343</t>
+          <t>383.5220497548713</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>411.7372602230587</t>
+          <t>411.7371969425398</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -7660,12 +7660,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>383.520115709343</t>
+          <t>383.5220497548713</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>411.7372602230587</t>
+          <t>411.7371969425398</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -7682,12 +7682,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>-48.79972750584939</t>
+          <t>-48.739412110230546</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>-69.94656975970156</t>
+          <t>-69.94655043875257</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -7704,12 +7704,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>-48.79972750584939</t>
+          <t>-48.739412110230546</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>-69.94656975970156</t>
+          <t>-69.94655043875257</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -7782,12 +7782,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>83.12439504426798</t>
+          <t>83.12618075562695</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>83.11029814767268</t>
+          <t>83.11029815323087</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -7797,12 +7797,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-231.64048944705004</t>
+          <t>-231.64918232860845</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-211.88524223753694</t>
+          <t>-211.88507998329226</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -7819,12 +7819,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>400.0211178412663</t>
+          <t>400.0236900644116</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>400.00000001906056</t>
+          <t>400.00000006528654</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -7834,12 +7834,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-447.5178116171478</t>
+          <t>-447.519582567423</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-434.29516235448295</t>
+          <t>-434.2951235427355</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -7851,17 +7851,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>G6_1</t>
+          <t>G2_1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>299.2024604317618</t>
+          <t>400.01586453448067</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>299.1852854504555</t>
+          <t>399.9999999711167</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -7871,12 +7871,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-391.8646188182175</t>
+          <t>-404.71184215838286</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-398.4532908593595</t>
+          <t>-398.4536709848745</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -7888,17 +7888,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>G2_1</t>
+          <t>G3_1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>400.01408113611524</t>
+          <t>420.01587579329254</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>399.999999947968</t>
+          <t>420.0000001243778</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -7908,12 +7908,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-434.4227617416034</t>
+          <t>-434.3977823560004</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-437.264214455281</t>
+          <t>-437.2641564653099</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -7925,17 +7925,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>G3_1</t>
+          <t>G4_1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>420.01409142043923</t>
+          <t>454.4845455799312</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>420.00000003693276</t>
+          <t>457.1502821253331</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -7945,12 +7945,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-15.720601781253848</t>
+          <t>-15.720998336821653</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-5.450778153641015</t>
+          <t>-5.450687553556335</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -7962,17 +7962,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>G4_1</t>
+          <t>G7_1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>454.31504151664734</t>
+          <t>313.31130721223667</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>457.1502458617276</t>
+          <t>313.699994216242</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -7982,12 +7982,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>26.459066312010236</t>
+          <t>26.459078265234783</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>33.11114354529767</t>
+          <t>33.111181330525916</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -7999,17 +7999,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>G7_1</t>
+          <t>G6_1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>312.47057268031097</t>
+          <t>298.39126141920656</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>312.883787098252</t>
+          <t>298.3705707254248</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -8019,12 +8019,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-120.43449977244623</t>
+          <t>-126.7879758158754</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-122.20659274981442</t>
+          <t>-122.20677697945173</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -8041,12 +8041,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>400.01409424790853</t>
+          <t>400.0158783618453</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>400.0000000426395</t>
+          <t>400.00000010461827</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -8056,12 +8056,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-49.71575701307995</t>
+          <t>-49.74550914826144</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-38.247577978032595</t>
+          <t>-38.247613278492814</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -8078,12 +8078,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>400.01409427352013</t>
+          <t>400.01587841874283</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>400.0000000426386</t>
+          <t>400.00000010461713</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -8093,12 +8093,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>885.3417774521754</t>
+          <t>885.5145944448082</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>866.8038802488859</t>
+          <t>866.8037362469686</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -8115,12 +8115,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>400.021124496996</t>
+          <t>400.0237005093573</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>400.0000000418585</t>
+          <t>400.0000001033906</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -8130,12 +8130,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1249.6570589079033</t>
+          <t>1249.6681923497913</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1275.3143914487582</t>
+          <t>1275.3145418079257</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -8152,12 +8152,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>400.01837715047174</t>
+          <t>400.0244644386796</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>400.0000000428296</t>
+          <t>400.0000001049166</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -8167,12 +8167,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1126.2054701000725</t>
+          <t>1049.7189040975704</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1123.3673095666566</t>
+          <t>1123.3662823886566</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -8189,12 +8189,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>400.0140816022614</t>
+          <t>400.01586451392603</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>400.0000000426395</t>
+          <t>400.00000010461827</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -8204,12 +8204,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>743.9895784432296</t>
+          <t>744.0518929974871</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>753.7906304933512</t>
+          <t>753.7907397854297</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -8221,17 +8221,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>G4_3</t>
+          <t>G6_3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>489.71650957717077</t>
+          <t>489.20860460157365</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>492.1518855237297</t>
+          <t>400.0000001049166</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -8241,12 +8241,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>185.04066995939388</t>
+          <t>185.17485463862005</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>165.52878923150362</t>
+          <t>165.52857516910316</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -8258,17 +8258,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>G6_3</t>
+          <t>G4_3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>400.01835005422765</t>
+          <t>400.0236771165867</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>400.0000000428296</t>
+          <t>492.1504778462805</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -8278,12 +8278,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>944.8527158439807</t>
+          <t>944.8609754594468</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>961.1419209373704</t>
+          <t>961.1420411707741</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -8300,12 +8300,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>400.014076465851</t>
+          <t>400.01585946563944</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>400.00000014754715</t>
+          <t>400.0000002510848</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -8315,12 +8315,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-54.119891740738865</t>
+          <t>-54.11310345955444</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>-44.57406337366491</t>
+          <t>-44.57401287843313</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -8337,12 +8337,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>400.01408336577725</t>
+          <t>400.015867054878</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>400.00000014754715</t>
+          <t>400.0000002510848</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -8352,12 +8352,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>-88.2067949923123</t>
+          <t>-88.2512799980621</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-60.54272695840476</t>
+          <t>-60.54247417203774</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -8374,12 +8374,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>400.0211050616323</t>
+          <t>400.0236751856179</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>400.00000014747263</t>
+          <t>400.0000002509883</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -8389,12 +8389,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>240.00849340691803</t>
+          <t>240.01065821105348</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>247.80530334151325</t>
+          <t>247.80535485114558</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -8411,12 +8411,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>400.0140762096091</t>
+          <t>400.015859226093</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>400.00000014754676</t>
+          <t>400.00000025108415</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -8426,12 +8426,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-578.9927651193889</t>
+          <t>-566.5757721593359</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-594.2102306032068</t>
+          <t>-594.2105982279655</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -8448,12 +8448,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>497.3553998341088</t>
+          <t>497.5137454525978</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>500.0000000018114</t>
+          <t>500.000015</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -8463,12 +8463,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-53.161786722183045</t>
+          <t>-53.17704518269278</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-43.34404496467331</t>
+          <t>-43.34406039614358</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -8485,12 +8485,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>170.41529814883918</t>
+          <t>170.41708381827323</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>170.40119939254944</t>
+          <t>170.4011994337996</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -8500,12 +8500,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-388.81690077490975</t>
+          <t>-388.87714502113465</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-362.6955391389575</t>
+          <t>-362.6953143007202</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -8522,7 +8522,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.1386652145713627e-08</t>
+          <t>1.1387162517693504e-08</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -8537,12 +8537,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-747.0241424167857</t>
+          <t>-747.0277436191016</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>-750.307649433911</t>
+          <t>-750.307687558648</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -8559,12 +8559,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>399.9820141540533</t>
+          <t>399.9855370824601</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>400.0000001387157</t>
+          <t>400.0000002395224</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -8574,12 +8574,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>-804.6628249228843</t>
+          <t>-791.8647116712677</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>-790.8628229724125</t>
+          <t>-790.862445917782</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -8596,12 +8596,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>400.0140920662141</t>
+          <t>400.0158767367796</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>400.0000003420442</t>
+          <t>400.00000049327554</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -8611,12 +8611,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-553.9436505986466</t>
+          <t>-553.9741170949155</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-546.5766427191572</t>
+          <t>-546.5767007041342</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -8633,12 +8633,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>420.0140801777373</t>
+          <t>420.01586347451746</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>420.0000001226309</t>
+          <t>420.0000002229752</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8648,12 +8648,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-15.720601781253848</t>
+          <t>-15.720998336821653</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-5.450778153641015</t>
+          <t>-5.450687553556335</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -8670,12 +8670,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>489.71642167102607</t>
+          <t>489.8623537507836</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>492.15179825937827</t>
+          <t>492.1516171775273</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -8685,12 +8685,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>26.459066312010236</t>
+          <t>26.459078265234783</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>33.11114354529767</t>
+          <t>33.111181330525916</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -8707,12 +8707,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>399.97811242037005</t>
+          <t>399.9817210797103</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>400.0000001387157</t>
+          <t>400.0000002395224</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -8722,12 +8722,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>-120.43449977244623</t>
+          <t>-126.7879758158754</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>-122.20659274981442</t>
+          <t>-122.20677697945173</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -8744,12 +8744,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>-49.71575701307995</t>
+          <t>-49.74550914826144</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>-38.247577978032595</t>
+          <t>-38.247613278492814</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -8766,12 +8766,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-92.38668663421588</t>
+          <t>-92.46338758290605</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>-128.05782351226097</t>
+          <t>-128.05831694325653</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -8788,12 +8788,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-92.38668663421588</t>
+          <t>-92.46338758290605</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>-128.05782351226097</t>
+          <t>-128.05831694325653</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -8810,12 +8810,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>-140.29243545866058</t>
+          <t>-140.2609380724449</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>-160.7461383461195</t>
+          <t>-160.74632918315024</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -8832,12 +8832,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-140.29243545866058</t>
+          <t>-140.2609380724449</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-160.7461383461195</t>
+          <t>-160.74632918315024</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -8854,12 +8854,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>205.02939484813794</t>
+          <t>204.95307152702054</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>230.1631510364101</t>
+          <t>230.16326125214346</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -8876,12 +8876,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>205.02939484813794</t>
+          <t>204.95307152702054</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>230.1631510364101</t>
+          <t>230.16326125214346</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -8898,12 +8898,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>-77.73110353045047</t>
+          <t>-77.65887659676036</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>-93.49644779249768</t>
+          <t>-93.49655819808535</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -8920,12 +8920,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>-77.73110353045047</t>
+          <t>-77.65887659676036</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>-93.49644779249768</t>
+          <t>-93.49655819808535</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -8998,12 +8998,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>83.20883939121168</t>
+          <t>83.20950217239046</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>83.11029814767268</t>
+          <t>83.11029815323087</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -9013,12 +9013,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-265.0809718631456</t>
+          <t>-265.0809432532151</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-246.82286382595612</t>
+          <t>-246.82309541226047</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -9035,12 +9035,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>400.12779435941593</t>
+          <t>400.12825553615704</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>400.00000001906056</t>
+          <t>400.00000006528654</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -9050,12 +9050,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-447.8986222437137</t>
+          <t>-447.89956252624296</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-434.68148789621085</t>
+          <t>-434.681566555952</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -9067,17 +9067,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>G6_1</t>
+          <t>G2_1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>299.3008324166823</t>
+          <t>400.09870690015066</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>299.1852854504555</t>
+          <t>399.9999999711167</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -9087,12 +9087,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-425.84728815943924</t>
+          <t>-425.84668192580205</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-433.1590149139429</t>
+          <t>-433.1589394118743</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -9104,17 +9104,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>G2_1</t>
+          <t>G3_1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>400.09978463236916</t>
+          <t>420.0992269478052</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>399.999999947968</t>
+          <t>420.0000001243778</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -9124,12 +9124,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-467.7687308396944</t>
+          <t>-467.7674740248791</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-476.5142362271713</t>
+          <t>-476.51413839935265</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -9141,17 +9141,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>G3_1</t>
+          <t>G4_1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>420.0987869038513</t>
+          <t>392.92603395504426</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>420.00000003693276</t>
+          <t>392.34083583633975</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -9161,12 +9161,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-32.47067674407764</t>
+          <t>-32.47067618068113</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-22.859575977162887</t>
+          <t>-22.85969442663969</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -9178,17 +9178,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>G4_1</t>
+          <t>G7_1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>392.9267764992414</t>
+          <t>300.11700250099045</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>392.3415992086928</t>
+          <t>299.999999993509</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -9198,12 +9198,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>26.17538215111945</t>
+          <t>26.174854035960607</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>32.800879992043946</t>
+          <t>32.800794464898345</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -9215,17 +9215,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>G7_1</t>
+          <t>G6_1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>299.301794580049</t>
+          <t>298.48704685301124</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>299.18528545045655</t>
+          <t>298.3705707254248</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -9235,12 +9235,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-137.36061247901256</t>
+          <t>-137.3603250037047</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-139.4144498967668</t>
+          <t>-139.41441351501754</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -9257,12 +9257,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>400.0988118426658</t>
+          <t>400.0992340943584</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>400.0000000426395</t>
+          <t>400.00000010461827</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -9272,12 +9272,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-41.097540568865504</t>
+          <t>-41.09725738291982</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-30.73651400927619</t>
+          <t>-30.736583105175963</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -9294,12 +9294,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>400.0988263609782</t>
+          <t>400.0992235912748</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>400.0000000426386</t>
+          <t>400.00000010461713</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -9309,12 +9309,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>857.5695567220747</t>
+          <t>857.5692741460005</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>836.7278136255484</t>
+          <t>836.7272873004914</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -9331,12 +9331,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>400.1277413327573</t>
+          <t>400.1281558254332</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>400.0000000418585</t>
+          <t>400.0000001033906</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -9346,12 +9346,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1248.2194455107797</t>
+          <t>1248.218552113747</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1273.7119894347234</t>
+          <t>1273.7116784157304</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -9368,12 +9368,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>400.12111369389487</t>
+          <t>400.1216957935552</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>400.0000000428296</t>
+          <t>400.0000001049166</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -9383,12 +9383,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1070.8647314356713</t>
+          <t>1070.863117722531</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1066.1961615912387</t>
+          <t>1066.1960903154254</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -9405,12 +9405,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>400.1021206254594</t>
+          <t>400.0985329925721</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>400.0000000426395</t>
+          <t>400.00000010461827</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -9420,7 +9420,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>934.0698366327405</t>
+          <t>934.0689428150617</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -9437,17 +9437,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>G4_3</t>
+          <t>G6_3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>400.1289296939385</t>
+          <t>400.12085718126764</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>400.0000000418585</t>
+          <t>400.0000001049166</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -9457,12 +9457,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>157.62716603935095</t>
+          <t>157.6269690333156</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>135.97174464044045</t>
+          <t>135.97124265720083</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -9474,17 +9474,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>G6_3</t>
+          <t>G4_3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>400.1214921186365</t>
+          <t>400.1274693333575</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>400.0000000428296</t>
+          <t>400.0000001033906</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -9494,12 +9494,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>943.7246099894719</t>
+          <t>943.7238144620906</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>959.9394945139744</t>
+          <t>959.9392421948421</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -9516,12 +9516,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>400.0984773290171</t>
+          <t>400.0987717263792</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>400.00000014754715</t>
+          <t>400.0000002510848</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -9531,12 +9531,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>144.50900916668502</t>
+          <t>144.50824842425283</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>150.2621464335233</t>
+          <t>150.262185176449</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -9553,12 +9553,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>400.09890296513987</t>
+          <t>400.09936394370567</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>400.00000014754715</t>
+          <t>400.0000002510848</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -9568,12 +9568,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>-112.39621391248185</t>
+          <t>-112.3961451705691</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-85.37541508871838</t>
+          <t>-85.37548357510185</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -9590,12 +9590,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>400.12771187784773</t>
+          <t>400.12817765104444</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>400.00000014747263</t>
+          <t>400.0000002509883</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -9605,12 +9605,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>239.53277142507957</t>
+          <t>239.5322101846403</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>247.4270605817181</t>
+          <t>247.42694340115628</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -9627,12 +9627,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>400.09841685342593</t>
+          <t>400.09888363810666</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>400.00000014754676</t>
+          <t>400.00000025108415</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -9642,12 +9642,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-633.3545664721811</t>
+          <t>-633.3543923090064</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-650.4157167439406</t>
+          <t>-650.4154803312958</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -9664,12 +9664,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>499.97287791450594</t>
+          <t>499.97094356863846</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>500.000015</t>
+          <t>500.0</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -9679,12 +9679,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-125.72760137947785</t>
+          <t>-125.72651139022668</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-119.53176859063082</t>
+          <t>-119.5318232413651</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -9701,12 +9701,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>170.4996369991908</t>
+          <t>170.5003287975032</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>170.40119939254944</t>
+          <t>170.4011994337996</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-412.878575074203</t>
+          <t>-412.8784664527155</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-387.53823557853025</t>
+          <t>-387.5382941514407</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -9738,12 +9738,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>400.1276711483589</t>
+          <t>400.1280402756869</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>400.0000001245244</t>
+          <t>400.0000002207564</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -9753,12 +9753,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-746.8912499292343</t>
+          <t>-746.8915204092773</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>-749.9311119884771</t>
+          <t>-749.9310356464254</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -9775,7 +9775,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.1758644297177139e-08</t>
+          <t>1.1758632488173805e-08</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -9790,12 +9790,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>-771.0508034994286</t>
+          <t>-771.0486528355382</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>-756.421795067707</t>
+          <t>-756.4218701713605</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -9812,12 +9812,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>400.0987020748559</t>
+          <t>400.09919245290763</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>510.79385270377344</t>
+          <t>510.79378528857006</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -9827,12 +9827,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-620.2675520458731</t>
+          <t>-620.2663669988699</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-617.0730032015521</t>
+          <t>-617.0730340449162</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -9849,12 +9849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>520.0156937731399</t>
+          <t>520.0120610348081</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>420.0000001226309</t>
+          <t>420.0000002229752</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -9864,12 +9864,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-32.47067674407764</t>
+          <t>-32.47067618068113</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-22.859575977162887</t>
+          <t>-22.85969442663969</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -9886,12 +9886,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>400.1273538231986</t>
+          <t>400.1273511745646</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>400.0000001245244</t>
+          <t>400.0000002207564</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -9901,12 +9901,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>26.17538215111945</t>
+          <t>26.174854035960607</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>32.800879992043946</t>
+          <t>32.800794464898345</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -9923,12 +9923,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>511.8532165389441</t>
+          <t>511.8549454069119</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>512.1209144112379</t>
+          <t>512.1207927962755</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -9938,12 +9938,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>-137.36061247901256</t>
+          <t>-137.3603250037047</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>-139.4144498967668</t>
+          <t>-139.41441351501754</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -9960,12 +9960,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>-41.097540568865504</t>
+          <t>-41.09725738291982</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>-30.73651400927619</t>
+          <t>-30.736583105175963</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -9982,12 +9982,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-84.4465271350453</t>
+          <t>-84.44714294149054</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>-119.80023007776799</t>
+          <t>-119.79999957061568</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-84.4465271350453</t>
+          <t>-84.44714294149054</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>-119.80023007776799</t>
+          <t>-119.79999957061568</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -10026,12 +10026,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>-111.81571147949843</t>
+          <t>-111.81579142222691</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>-131.27835223517968</t>
+          <t>-131.27820808377064</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -10048,12 +10048,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-111.81571147949843</t>
+          <t>-111.81579142222691</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-131.27835223517968</t>
+          <t>-131.27820808377064</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -10070,12 +10070,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>202.63664632989332</t>
+          <t>202.63640353685582</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>229.0014100166318</t>
+          <t>229.00116582208318</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -10092,12 +10092,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>202.63664632989332</t>
+          <t>202.63640353685582</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>229.0014100166318</t>
+          <t>229.00116582208318</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -10114,12 +10114,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>-26.08342275172356</t>
+          <t>-26.083074932533847</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>-40.159621948533875</t>
+          <t>-40.15955273669602</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -10136,12 +10136,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>-26.08342275172356</t>
+          <t>-26.083074932533847</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>-40.159621948533875</t>
+          <t>-40.15955273669602</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -10214,12 +10214,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>83.12572243803992</t>
+          <t>83.12755934301431</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>83.11029814767268</t>
+          <t>83.11029815323087</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -10229,12 +10229,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-219.82983509990623</t>
+          <t>-219.83837313689924</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-200.40795593392525</t>
+          <t>-200.40729260437269</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -10251,12 +10251,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>400.0229703558918</t>
+          <t>400.02560202921364</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>400.00000001906056</t>
+          <t>400.00000006528654</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -10266,12 +10266,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-447.5901210714054</t>
+          <t>-447.59213158690835</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-434.39698823621376</t>
+          <t>-434.39693019368536</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -10283,17 +10283,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>G6_1</t>
+          <t>G2_1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>299.205150953998</t>
+          <t>400.017242009503</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>299.1852854504555</t>
+          <t>399.9999999711167</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -10303,12 +10303,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-392.32675088821463</t>
+          <t>-405.0052713513443</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-398.62229195872413</t>
+          <t>-398.6226888108016</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -10320,17 +10320,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>G2_1</t>
+          <t>G3_1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>400.0154073810767</t>
+          <t>420.01725377939334</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>399.999999947968</t>
+          <t>420.0000001243778</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-201.1883673417077</t>
+          <t>-201.16241817551935</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-204.64706477325385</t>
+          <t>-204.64675443354588</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -10357,17 +10357,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>G3_1</t>
+          <t>G4_1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>420.0154181812814</t>
+          <t>453.1420010201116</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>420.00000003693276</t>
+          <t>456.8951246393378</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -10377,12 +10377,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-9.841641518668933</t>
+          <t>-9.842059120197604</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.24775636049500813</t>
+          <t>0.24810034164943562</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -10394,17 +10394,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>G4_1</t>
+          <t>G7_1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>452.9811862248562</t>
+          <t>314.8414994177805</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>456.89481645703063</t>
+          <t>315.4370037492897</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -10414,12 +10414,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>26.391186997767985</t>
+          <t>26.391018272746344</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>33.02911105950251</t>
+          <t>33.02917394025712</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -10431,17 +10431,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>G7_1</t>
+          <t>G6_1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>313.99621791676526</t>
+          <t>298.39398813632664</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>314.6175695141591</t>
+          <t>298.3705707254248</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -10451,12 +10451,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-120.65359124243248</t>
+          <t>-126.92372713378685</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-122.2785144855136</t>
+          <t>-122.27872476596615</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -10473,12 +10473,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>400.0154214121128</t>
+          <t>400.0172566829908</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>400.0000000426395</t>
+          <t>400.00000010461827</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -10488,12 +10488,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>52.836993436622166</t>
+          <t>52.80911983498808</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>63.95022797670963</t>
+          <t>63.94988471053754</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -10510,12 +10510,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>400.0154214458748</t>
+          <t>400.0172567478131</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>400.0000000426386</t>
+          <t>400.00000010461713</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -10525,12 +10525,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>872.2668146218564</t>
+          <t>872.4310517216109</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>855.2325373673003</t>
+          <t>855.2321566758603</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -10547,12 +10547,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>400.022977743318</t>
+          <t>400.0256135700398</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>400.0000000418585</t>
+          <t>400.0000001033906</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -10562,12 +10562,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1249.194016861515</t>
+          <t>1249.204219621469</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1274.8933934757197</t>
+          <t>1274.893622613931</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -10584,12 +10584,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>400.0211073421484</t>
+          <t>400.02715108852124</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>400.0000000428296</t>
+          <t>400.0000001049166</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -10599,12 +10599,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1125.4657506623194</t>
+          <t>1049.9922647226322</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1123.2529078002078</t>
+          <t>1123.2539934496558</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -10621,12 +10621,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>400.0154080337815</t>
+          <t>400.01724211052516</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>400.0000000426395</t>
+          <t>400.00000010461827</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -10636,12 +10636,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>908.6764441144742</t>
+          <t>908.7280858905463</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>918.0518653984594</t>
+          <t>918.0519801000138</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -10653,17 +10653,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>G4_3</t>
+          <t>G6_3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>488.5319171374204</t>
+          <t>488.0286016535993</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>491.89306317225254</t>
+          <t>400.0000001049166</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -10673,12 +10673,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>171.97601694302685</t>
+          <t>172.10246618023703</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>153.98441804472463</t>
+          <t>153.9839315574588</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -10690,17 +10690,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>G6_3</t>
+          <t>G4_3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>400.02107642768067</t>
+          <t>400.0255891873775</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>400.0000000428296</t>
+          <t>491.89374528507346</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -10710,12 +10710,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>944.494509806973</t>
+          <t>944.5020397372951</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>960.8257650559276</t>
+          <t>960.8259510297687</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -10732,12 +10732,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>400.01540189185084</t>
+          <t>400.01723603014807</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>400.00000014754715</t>
+          <t>400.0000002510848</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -10747,12 +10747,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>109.3746730521552</t>
+          <t>109.378316332725</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>118.16898978951633</t>
+          <t>118.16896231560146</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -10769,12 +10769,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>400.0154092349973</t>
+          <t>400.0172440149348</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>400.00000014754715</t>
+          <t>400.0000002510848</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -10784,12 +10784,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>-72.08386112385914</t>
+          <t>-72.1256544866309</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-45.35219085157172</t>
+          <t>-45.35134563064491</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -10806,12 +10806,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>400.02295581629545</t>
+          <t>400.0255854715842</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>400.00000014747263</t>
+          <t>400.0000002509883</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -10821,12 +10821,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>239.87157409840933</t>
+          <t>239.8734329919562</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>247.7047872190914</t>
+          <t>247.7048737623413</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -10843,12 +10843,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>400.0154016462645</t>
+          <t>400.01723578986923</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>400.00000014754676</t>
+          <t>400.00000025108415</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -10858,12 +10858,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-579.944826231891</t>
+          <t>-567.6912282799117</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-594.5581909106346</t>
+          <t>-594.5598934422924</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -10880,12 +10880,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>496.34029717484935</t>
+          <t>496.4906159250035</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>500.000015</t>
+          <t>500.0</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -10895,12 +10895,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>110.3292375785503</t>
+          <t>110.31416691708374</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>119.11560567920021</t>
+          <t>119.11541015780496</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -10917,12 +10917,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>170.41662475159245</t>
+          <t>170.41846151567503</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>170.40119939254944</t>
+          <t>170.4011994337996</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -10932,12 +10932,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-372.6028031024448</t>
+          <t>-372.6599683365153</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-347.32506810511353</t>
+          <t>-347.32425070209183</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -10954,12 +10954,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>400.02297700115463</t>
+          <t>400.0256087203254</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>400.0000001245244</t>
+          <t>400.0000002207564</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -10969,12 +10969,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-746.9542114719627</t>
+          <t>-746.9577229011093</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>-750.2084037097255</t>
+          <t>-750.2084605686955</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -10991,12 +10991,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>399.9815959206475</t>
+          <t>399.98506608780616</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>400.0000001387157</t>
+          <t>400.0000002395224</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -11006,12 +11006,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>-804.2053990234733</t>
+          <t>-791.5754835100158</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>-790.695113561702</t>
+          <t>-790.6947199711402</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.124260999045894e-08</t>
+          <t>1.2020907361288655e-08</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -11043,12 +11043,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-388.4264053530694</t>
+          <t>-388.4560702902686</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-381.7727564932081</t>
+          <t>-381.77306691445716</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -11065,12 +11065,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>420.01540724967157</t>
+          <t>420.01724180695453</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>420.0000001226309</t>
+          <t>420.0000002229752</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -11080,12 +11080,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-9.841641518668933</t>
+          <t>-9.842059120197604</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.24775636049500813</t>
+          <t>0.24810034164943562</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -11102,12 +11102,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>488.5347379386324</t>
+          <t>488.67136508123485</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>491.8959930472181</t>
+          <t>491.89419064206595</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -11117,12 +11117,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>26.391186997767985</t>
+          <t>26.391018272746344</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>33.02911105950251</t>
+          <t>33.02917394025712</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -11139,12 +11139,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>399.977449999298</t>
+          <t>399.98099455128335</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>400.0000001387157</t>
+          <t>400.0000002395224</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -11154,12 +11154,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>-120.65359124243248</t>
+          <t>-126.92372713378685</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>-122.2785144855136</t>
+          <t>-122.27872476596615</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -11176,12 +11176,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>52.836993436622166</t>
+          <t>52.80911983498808</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>63.95022797670963</t>
+          <t>63.94988471053754</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -11198,12 +11198,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-78.57526794497171</t>
+          <t>-78.64966014506827</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>-112.94983867415817</t>
+          <t>-112.9515098575572</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -11220,12 +11220,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-78.57526794497171</t>
+          <t>-78.64966014506827</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>-112.94983867415817</t>
+          <t>-112.9515098575572</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -11242,12 +11242,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>-154.21462987129865</t>
+          <t>-154.1848482528478</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>-173.9693371108794</t>
+          <t>-173.97006697694493</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -11264,12 +11264,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-154.21462987129865</t>
+          <t>-154.1848482528478</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-173.9693371108794</t>
+          <t>-173.97006697694493</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -11286,12 +11286,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>205.24467236331412</t>
+          <t>205.1717456122021</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>229.85738109446285</t>
+          <t>229.85757433196792</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -11308,12 +11308,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>205.24467236331412</t>
+          <t>205.1717456122021</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>229.85738109446285</t>
+          <t>229.85757433196792</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -11330,12 +11330,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>-63.23815824660324</t>
+          <t>-63.16579505266748</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>-78.18839860640523</t>
+          <t>-78.18901469078679</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -11352,12 +11352,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>-63.23815824660324</t>
+          <t>-63.16579505266748</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>-78.18839860640523</t>
+          <t>-78.18901469078679</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
